--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value5.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value5.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.07712357027244</v>
+        <v>3.065647602081299</v>
       </c>
       <c r="B1">
-        <v>2.641382602413219</v>
+        <v>6.307534694671631</v>
       </c>
       <c r="C1">
-        <v>2.719282987978329</v>
+        <v>6.501516819000244</v>
       </c>
       <c r="D1">
-        <v>0.7550071706148703</v>
+        <v>6.925323486328125</v>
       </c>
       <c r="E1">
-        <v>0.5931672061317729</v>
+        <v>5.019288539886475</v>
       </c>
     </row>
   </sheetData>
